--- a/BOP/ReportXML/ทะเบียน Report BOP.xlsx
+++ b/BOP/ReportXML/ทะเบียน Report BOP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>ชื่อเดิม</t>
   </si>
@@ -266,6 +266,24 @@
   </si>
   <si>
     <t>OPD รายงานการจ่ายสินค้าให้คนไข้</t>
+  </si>
+  <si>
+    <t>BOP_Rev_CHK03</t>
+  </si>
+  <si>
+    <t>CHK ตรวจสอบ BOP ราย Visit</t>
+  </si>
+  <si>
+    <t>สรุป Agent อพ.</t>
+  </si>
+  <si>
+    <t>BOP_Rev_Agent_AT01</t>
+  </si>
+  <si>
+    <t>BOP_Rev_Agent_AT02</t>
+  </si>
+  <si>
+    <t>สรุป Agent อธ.</t>
   </si>
 </sst>
 </file>
@@ -629,18 +647,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -745,62 +763,53 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
       <c r="C9" t="s">
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -808,148 +817,181 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>66</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/BOP/ReportXML/ทะเบียน Report BOP.xlsx
+++ b/BOP/ReportXML/ทะเบียน Report BOP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>ชื่อเดิม</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>สรุป Agent อธ.</t>
+  </si>
+  <si>
+    <t>BOP_Rev_Agent_AT03</t>
+  </si>
+  <si>
+    <t>สรุป Agent แยกรายละเอียด</t>
   </si>
 </sst>
 </file>
@@ -647,11 +653,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,19 +985,27 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
